--- a/excel/data_mitra.xlsx
+++ b/excel/data_mitra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atama\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Applications\CodeIgniter\simpentra\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C24E2-0E98-4456-ABA2-86E58E6B362B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA2453-7FEB-48BA-8248-4B2A6C167893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="90">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -49,56 +49,254 @@
     <t>bahasa</t>
   </si>
   <si>
-    <t>lmll</t>
-  </si>
-  <si>
-    <t>dsf</t>
-  </si>
-  <si>
-    <t>wmfek</t>
-  </si>
-  <si>
-    <t>kmdkm</t>
+    <t>no_hp</t>
+  </si>
+  <si>
+    <t>Nama Mitra 1</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 1</t>
+  </si>
+  <si>
+    <t>mitra1@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra2@gmail.com</t>
+  </si>
+  <si>
+    <t>Nama Mitra 2</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 2</t>
+  </si>
+  <si>
+    <t>Ds. 1 Kec. 2, Kab. Jember</t>
+  </si>
+  <si>
+    <t>Ds. 1 Kec. 1, Kab. Jember</t>
+  </si>
+  <si>
+    <t>08119594999</t>
+  </si>
+  <si>
+    <t>08119594231</t>
+  </si>
+  <si>
+    <t>Petani</t>
+  </si>
+  <si>
+    <t>Mencacah</t>
+  </si>
+  <si>
+    <t>Jawa</t>
+  </si>
+  <si>
+    <t>Pedagang</t>
+  </si>
+  <si>
+    <t>Nama Mitra 3</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 3</t>
+  </si>
+  <si>
+    <t>Nama Mitra 4</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 4</t>
+  </si>
+  <si>
+    <t>Nama Mitra 5</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 5</t>
+  </si>
+  <si>
+    <t>Nama Mitra 6</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 6</t>
+  </si>
+  <si>
+    <t>Nama Mitra 7</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 7</t>
+  </si>
+  <si>
+    <t>Nama Mitra 8</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 8</t>
+  </si>
+  <si>
+    <t>Nama Mitra 9</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 9</t>
+  </si>
+  <si>
+    <t>Nama Mitra 10</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 10</t>
+  </si>
+  <si>
+    <t>Nama Mitra 11</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 11</t>
+  </si>
+  <si>
+    <t>Nama Mitra 12</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 12</t>
+  </si>
+  <si>
+    <t>Nama Mitra 13</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 13</t>
+  </si>
+  <si>
+    <t>Nama Mitra 14</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 14</t>
+  </si>
+  <si>
+    <t>Nama Mitra 15</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 15</t>
+  </si>
+  <si>
+    <t>Nama Mitra 16</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 16</t>
+  </si>
+  <si>
+    <t>Nama Mitra 17</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 17</t>
+  </si>
+  <si>
+    <t>Nama Mitra 18</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 18</t>
+  </si>
+  <si>
+    <t>Nama Mitra 19</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 19</t>
+  </si>
+  <si>
+    <t>Nama Mitra 20</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 20</t>
+  </si>
+  <si>
+    <t>Nama Mitra 21</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 21</t>
+  </si>
+  <si>
+    <t>Nama Mitra 22</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 22</t>
+  </si>
+  <si>
+    <t>Nama Mitra 23</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 23</t>
+  </si>
+  <si>
+    <t>mitra3@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra4@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra5@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra6@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra7@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra8@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra9@gmail.com</t>
   </si>
   <si>
     <t>mitra10@gmail.com</t>
   </si>
   <si>
-    <t>mitra16</t>
-  </si>
-  <si>
-    <t>mitra15</t>
-  </si>
-  <si>
-    <t>mit15</t>
-  </si>
-  <si>
-    <t>mi16</t>
+    <t>mitra11@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra12@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra13@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra14@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra15@gmail.com</t>
   </si>
   <si>
     <t>mitra16@gmail.com</t>
   </si>
   <si>
-    <t>fef</t>
-  </si>
-  <si>
-    <t>ddef</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>wsss</t>
-  </si>
-  <si>
-    <t>no_hp</t>
+    <t>mitra17@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra18@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra19@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra20@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra21@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra22@gmail.com</t>
+  </si>
+  <si>
+    <t>mitra23@gmail.com</t>
+  </si>
+  <si>
+    <t>Nama Mitra 24</t>
+  </si>
+  <si>
+    <t>Panggilan Mitra 24</t>
+  </si>
+  <si>
+    <t>mitra24@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +308,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,9 +340,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -531,34 +736,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>121</v>
-      </c>
-      <c r="F2">
-        <v>221</v>
-      </c>
-      <c r="G2">
-        <v>233</v>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -566,26 +771,26 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>222</v>
-      </c>
-      <c r="F3">
-        <v>123</v>
-      </c>
-      <c r="G3">
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
@@ -593,10 +798,737 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{81EEF7A4-21C0-4365-A143-56E7FFE85803}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{192444D2-F109-47E3-A5A7-6500319839C7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{EE415D36-7FB8-4CC3-BA9A-4C4227A28719}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3B93AAFB-07A3-4DA7-A108-7EC20467E1A2}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{1C874D0C-F93F-4CFF-ABF4-3795EAF55AA8}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{352C41ED-78F3-47EC-A417-B9DEE484DDCE}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{B960530B-9BE8-450D-9F92-5ECC47AD4CC3}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{8FC489C2-BB80-460F-B666-DE944A366218}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{5F05CF0A-18CE-4650-9709-27C67D4060D6}"/>
+    <hyperlink ref="C7" r:id="rId10" xr:uid="{B2CB0184-C080-4271-AB90-F053C0052866}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{7F2A6B43-B748-4616-9B8A-D9956A8C52D1}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{C0210896-DA95-4FAB-8464-827EC231AA62}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{B424F72F-A477-45F7-93E4-856ECBC6DD95}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{5E3CEBD3-D1EB-47DF-998E-EF108A1B032E}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{DB75A2F8-2302-4211-958E-DDA64615B099}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{24423710-916D-495A-B932-F770F1672279}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{3AE83C3A-4582-4FBF-9E27-F2C21344DC91}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{BD1F3E8E-94F2-4D87-A7C6-39B57558998A}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{D040101E-67B6-4222-BB4B-74CBFA500736}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{3B118B8F-7558-4725-8C07-E0BAB5680075}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{3782F2FD-8280-4D96-8005-8EF11D5A145D}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{BD74E2BA-50FD-4EAE-8FDD-5B8CEB727DF5}"/>
+    <hyperlink ref="C21" r:id="rId23" xr:uid="{BEC220EA-68DC-4563-9DEC-8B9906689243}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{395F216E-2A79-4EE5-B165-6FDE6D88D98B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
